--- a/InputData/land/CiLVpUAAbP/Chg in Land Val per Unit Area Affected by Pol.xlsx
+++ b/InputData/land/CiLVpUAAbP/Chg in Land Val per Unit Area Affected by Pol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\land\CiLVpUAAbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\land\CiLVpUAAbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B3ADA-B09E-47B1-9DBA-9C7725FC1343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E4D29B-B062-43EF-9E0E-8549E07C3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6480" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'County Data'!$A$11:$T$11</definedName>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>CiLVpUAAbP Change in Land Value per Unit Area Affected by Policy</t>
   </si>
@@ -451,12 +454,6 @@
     <t>2012$ / acre</t>
   </si>
   <si>
-    <t>Avoid deforestion, peatland restoration, and forest restoration policies</t>
-  </si>
-  <si>
-    <t>are not used in the U.S. version of the model.</t>
-  </si>
-  <si>
     <t>Change in Land Value ($/acre)</t>
   </si>
   <si>
@@ -601,7 +598,10 @@
     <t>OR EPS Note:</t>
   </si>
   <si>
-    <t>Same methodology was used as the US/CA EPS model, parsing the above County Data down to just OR counties.</t>
+    <t>Forest management is not used in the OR model.</t>
+  </si>
+  <si>
+    <t>We assume that the change in land value for avoided conversion and replanting after wildfire is 0.</t>
   </si>
 </sst>
 </file>
@@ -923,6 +923,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,29 +961,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1366,23 +1366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="93.42578125" customWidth="1"/>
+    <col min="2" max="2" width="93.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,77 +1390,72 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>1.4330000000000001</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>103</v>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1481,13 +1476,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -1498,12 +1493,12 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
         <f>SUMPRODUCT('County Data'!C12:E47,'County Data'!Q12:S47)/SUM('County Data'!T12:T47)</f>
         <v>986.3144477549813</v>
@@ -1512,27 +1507,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="24">
-        <f>A3*About!A16</f>
+        <f>A3*About!A15</f>
         <v>1413.3886036328884</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="24">
         <f>SUMPRODUCT('County Data'!C12:E47,'County Data'!Q12:S47)/SUM('County Data'!T12:T47)</f>
         <v>986.3144477549813</v>
@@ -1541,12 +1536,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <f>SUMPRODUCT('County Data'!F12:H47,'County Data'!Q12:S47)/SUM('County Data'!T12:T47)</f>
         <v>126.46568272363919</v>
@@ -1555,12 +1550,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="24">
         <f>A8-A11</f>
         <v>859.84876503134205</v>
@@ -1569,9 +1564,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
-        <f>A14*About!A16</f>
+        <f>A14*About!A15</f>
         <v>1232.1632802899132</v>
       </c>
       <c r="B15" t="s">
@@ -1587,34 +1582,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85DC205-BA59-4EF9-A2E3-9079ABED1D5C}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.54296875" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1621,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1636,153 +1631,153 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="28" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="28" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31" t="s">
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="40" t="s">
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-    </row>
-    <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" s="44" t="s">
+      <c r="N11" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="S11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>41039</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>82</v>
+      <c r="B12" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="7">
         <v>2662</v>
@@ -1811,14 +1806,14 @@
       <c r="K12" s="14">
         <v>46.820480000000003</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="32">
         <v>41.351329999999997</v>
       </c>
       <c r="M12" s="6">
-        <f>K12-L12</f>
+        <f t="shared" ref="M12:M47" si="0">K12-L12</f>
         <v>5.4691500000000062</v>
       </c>
-      <c r="N12" s="39"/>
+      <c r="N12" s="33"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="15">
@@ -1827,20 +1822,20 @@
       <c r="R12">
         <v>125420</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="34">
         <v>229970</v>
       </c>
       <c r="T12" s="16">
-        <f>SUM(Q12:S12)</f>
+        <f t="shared" ref="T12:T47" si="1">SUM(Q12:S12)</f>
         <v>407380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>41047</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>86</v>
+      <c r="B13" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="7">
         <v>1739</v>
@@ -1873,7 +1868,7 @@
         <v>38.143189999999997</v>
       </c>
       <c r="M13" s="6">
-        <f>K13-L13</f>
+        <f t="shared" si="0"/>
         <v>7.2771000000000043</v>
       </c>
       <c r="N13" s="14"/>
@@ -1889,16 +1884,16 @@
         <v>41530</v>
       </c>
       <c r="T13" s="16">
-        <f>SUM(Q13:S13)</f>
+        <f t="shared" si="1"/>
         <v>313740</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>41071</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>98</v>
+      <c r="B14" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="C14" s="6">
         <v>1786</v>
@@ -1931,7 +1926,7 @@
         <v>32.357950000000002</v>
       </c>
       <c r="M14" s="6">
-        <f>K14-L14</f>
+        <f t="shared" si="0"/>
         <v>14.9664</v>
       </c>
       <c r="N14" s="14"/>
@@ -1947,16 +1942,16 @@
         <v>48830</v>
       </c>
       <c r="T14" s="16">
-        <f>SUM(Q14:S14)</f>
+        <f t="shared" si="1"/>
         <v>203970</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>41067</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>96</v>
+      <c r="B15" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="7">
         <v>1039</v>
@@ -1989,7 +1984,7 @@
         <v>32.572339999999997</v>
       </c>
       <c r="M15" s="6">
-        <f>K15-L15</f>
+        <f t="shared" si="0"/>
         <v>12.138650000000005</v>
       </c>
       <c r="N15" s="14"/>
@@ -2005,16 +2000,16 @@
         <v>51500</v>
       </c>
       <c r="T15" s="16">
-        <f>SUM(Q15:S15)</f>
+        <f t="shared" si="1"/>
         <v>163660</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>41043</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>84</v>
+      <c r="B16" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="7">
         <v>1375</v>
@@ -2047,7 +2042,7 @@
         <v>38.90419</v>
       </c>
       <c r="M16" s="6">
-        <f>K16-L16</f>
+        <f t="shared" si="0"/>
         <v>7.2901999999999987</v>
       </c>
       <c r="N16" s="14"/>
@@ -2063,16 +2058,16 @@
         <v>139760</v>
       </c>
       <c r="T16" s="16">
-        <f>SUM(Q16:S16)</f>
+        <f t="shared" si="1"/>
         <v>484410</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>41053</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>89</v>
+      <c r="B17" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="7">
         <v>1444</v>
@@ -2105,7 +2100,7 @@
         <v>35.804639999999999</v>
       </c>
       <c r="M17" s="6">
-        <f>K17-L17</f>
+        <f t="shared" si="0"/>
         <v>11.92512</v>
       </c>
       <c r="N17" s="14"/>
@@ -2121,16 +2116,16 @@
         <v>58010</v>
       </c>
       <c r="T17" s="16">
-        <f>SUM(Q17:S17)</f>
+        <f t="shared" si="1"/>
         <v>212850</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>41063</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>94</v>
+      <c r="B18" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="C18" s="7">
         <v>537</v>
@@ -2163,7 +2158,7 @@
         <v>17.136769999999999</v>
       </c>
       <c r="M18" s="6">
-        <f>K18-L18</f>
+        <f t="shared" si="0"/>
         <v>1.3871900000000004</v>
       </c>
       <c r="N18" s="14"/>
@@ -2179,16 +2174,16 @@
         <v>407840</v>
       </c>
       <c r="T18" s="16">
-        <f>SUM(Q18:S18)</f>
+        <f t="shared" si="1"/>
         <v>461150</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>41001</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>63</v>
+      <c r="B19" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="7">
         <v>504</v>
@@ -2219,7 +2214,7 @@
         <v>13.56812</v>
       </c>
       <c r="M19" s="6">
-        <f>K19-L19</f>
+        <f t="shared" si="0"/>
         <v>1.0326299999999993</v>
       </c>
       <c r="N19" s="14"/>
@@ -2235,16 +2230,16 @@
         <v>277230</v>
       </c>
       <c r="T19" s="16">
-        <f>SUM(Q19:S19)</f>
+        <f t="shared" si="1"/>
         <v>291830</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>41003</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>64</v>
+      <c r="B20" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="7">
         <v>837</v>
@@ -2275,7 +2270,7 @@
         <v>35.163310000000003</v>
       </c>
       <c r="M20" s="6">
-        <f>K20-L20</f>
+        <f t="shared" si="0"/>
         <v>10.607479999999995</v>
       </c>
       <c r="N20" s="14"/>
@@ -2291,16 +2286,16 @@
         <v>38180</v>
       </c>
       <c r="T20" s="16">
-        <f>SUM(Q20:S20)</f>
+        <f t="shared" si="1"/>
         <v>136450</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>41005</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>65</v>
+      <c r="B21" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="7">
         <v>2037</v>
@@ -2331,7 +2326,7 @@
         <v>39.004530000000003</v>
       </c>
       <c r="M21" s="6">
-        <f>K21-L21</f>
+        <f t="shared" si="0"/>
         <v>6.4503799999999956</v>
       </c>
       <c r="N21" s="14"/>
@@ -2347,16 +2342,16 @@
         <v>72740</v>
       </c>
       <c r="T21" s="16">
-        <f>SUM(Q21:S21)</f>
+        <f t="shared" si="1"/>
         <v>234400</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>41007</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>66</v>
+      <c r="B22" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="7">
         <v>1923</v>
@@ -2387,7 +2382,7 @@
         <v>33.022709999999996</v>
       </c>
       <c r="M22" s="6">
-        <f>K22-L22</f>
+        <f t="shared" si="0"/>
         <v>11.625160000000001</v>
       </c>
       <c r="N22" s="14"/>
@@ -2403,16 +2398,16 @@
         <v>67400</v>
       </c>
       <c r="T22" s="16">
-        <f>SUM(Q22:S22)</f>
+        <f t="shared" si="1"/>
         <v>70360</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>41009</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>67</v>
+      <c r="B23" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="7">
         <v>2074</v>
@@ -2443,7 +2438,7 @@
         <v>32.752009999999999</v>
       </c>
       <c r="M23" s="6">
-        <f>K23-L23</f>
+        <f t="shared" si="0"/>
         <v>11.61936</v>
       </c>
       <c r="N23" s="14"/>
@@ -2459,16 +2454,16 @@
         <v>102610</v>
       </c>
       <c r="T23" s="16">
-        <f>SUM(Q23:S23)</f>
+        <f t="shared" si="1"/>
         <v>122430</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>41011</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>68</v>
+      <c r="B24" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="7">
         <v>1325</v>
@@ -2499,7 +2494,7 @@
         <v>34.782690000000002</v>
       </c>
       <c r="M24" s="6">
-        <f>K24-L24</f>
+        <f t="shared" si="0"/>
         <v>10.67163</v>
       </c>
       <c r="N24" s="14"/>
@@ -2515,16 +2510,16 @@
         <v>175060</v>
       </c>
       <c r="T24" s="16">
-        <f>SUM(Q24:S24)</f>
+        <f t="shared" si="1"/>
         <v>200440</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>41013</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>69</v>
+      <c r="B25" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="7">
         <v>359</v>
@@ -2555,7 +2550,7 @@
         <v>11.846109999999999</v>
       </c>
       <c r="M25" s="6">
-        <f>K25-L25</f>
+        <f t="shared" si="0"/>
         <v>0.7317600000000013</v>
       </c>
       <c r="N25" s="14"/>
@@ -2571,16 +2566,16 @@
         <v>239250</v>
       </c>
       <c r="T25" s="16">
-        <f>SUM(Q25:S25)</f>
+        <f t="shared" si="1"/>
         <v>239590</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>41015</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>70</v>
+      <c r="B26" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="7">
         <v>2017</v>
@@ -2611,7 +2606,7 @@
         <v>35.3523</v>
       </c>
       <c r="M26" s="6">
-        <f>K26-L26</f>
+        <f t="shared" si="0"/>
         <v>11.326410000000003</v>
       </c>
       <c r="N26" s="14"/>
@@ -2627,16 +2622,16 @@
         <v>73410</v>
       </c>
       <c r="T26" s="16">
-        <f>SUM(Q26:S26)</f>
+        <f t="shared" si="1"/>
         <v>77740</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>41017</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>71</v>
+      <c r="B27" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="7">
         <v>2715</v>
@@ -2667,7 +2662,7 @@
         <v>11.414149999999999</v>
       </c>
       <c r="M27" s="6">
-        <f>K27-L27</f>
+        <f t="shared" si="0"/>
         <v>0.6745100000000015</v>
       </c>
       <c r="N27" s="14"/>
@@ -2683,16 +2678,16 @@
         <v>22590</v>
       </c>
       <c r="T27" s="16">
-        <f>SUM(Q27:S27)</f>
+        <f t="shared" si="1"/>
         <v>24460</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>41019</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>72</v>
+      <c r="B28" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="7">
         <v>1814</v>
@@ -2723,7 +2718,7 @@
         <v>40.832790000000003</v>
       </c>
       <c r="M28" s="6">
-        <f>K28-L28</f>
+        <f t="shared" si="0"/>
         <v>5.3932799999999972</v>
       </c>
       <c r="N28" s="14"/>
@@ -2739,16 +2734,16 @@
         <v>361510</v>
       </c>
       <c r="T28" s="16">
-        <f>SUM(Q28:S28)</f>
+        <f t="shared" si="1"/>
         <v>524050</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>41021</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>73</v>
+      <c r="B29" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="7">
         <v>265</v>
@@ -2779,7 +2774,7 @@
         <v>18.069859999999998</v>
       </c>
       <c r="M29" s="6">
-        <f>K29-L29</f>
+        <f t="shared" si="0"/>
         <v>1.7773600000000016</v>
       </c>
       <c r="N29" s="14"/>
@@ -2795,16 +2790,16 @@
         <v>9510</v>
       </c>
       <c r="T29" s="16">
-        <f>SUM(Q29:S29)</f>
+        <f t="shared" si="1"/>
         <v>9580</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>41023</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>74</v>
+      <c r="B30" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C30" s="7">
         <v>339</v>
@@ -2835,7 +2830,7 @@
         <v>13.01454</v>
       </c>
       <c r="M30" s="6">
-        <f>K30-L30</f>
+        <f t="shared" si="0"/>
         <v>0.87782999999999944</v>
       </c>
       <c r="N30" s="14"/>
@@ -2851,16 +2846,16 @@
         <v>439660</v>
       </c>
       <c r="T30" s="16">
-        <f>SUM(Q30:S30)</f>
+        <f t="shared" si="1"/>
         <v>441680</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>41025</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>75</v>
+      <c r="B31" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="C31" s="7">
         <v>294</v>
@@ -2891,7 +2886,7 @@
         <v>10.67489</v>
       </c>
       <c r="M31" s="6">
-        <f>K31-L31</f>
+        <f t="shared" si="0"/>
         <v>0.679450000000001</v>
       </c>
       <c r="N31" s="14"/>
@@ -2907,16 +2902,16 @@
         <v>196360</v>
       </c>
       <c r="T31" s="16">
-        <f>SUM(Q31:S31)</f>
+        <f t="shared" si="1"/>
         <v>196480</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>41027</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>76</v>
+      <c r="B32" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="C32" s="7">
         <v>2297</v>
@@ -2947,7 +2942,7 @@
         <v>33.85125</v>
       </c>
       <c r="M32" s="6">
-        <f>K32-L32</f>
+        <f t="shared" si="0"/>
         <v>10.18844</v>
       </c>
       <c r="N32" s="14"/>
@@ -2963,16 +2958,16 @@
         <v>21770</v>
       </c>
       <c r="T32" s="16">
-        <f>SUM(Q32:S32)</f>
+        <f t="shared" si="1"/>
         <v>46290</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>41029</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>77</v>
+      <c r="B33" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="C33" s="7">
         <v>1784</v>
@@ -3003,7 +2998,7 @@
         <v>42.000590000000003</v>
       </c>
       <c r="M33" s="6">
-        <f>K33-L33</f>
+        <f t="shared" si="0"/>
         <v>4.0098500000000001</v>
       </c>
       <c r="N33" s="14"/>
@@ -3019,16 +3014,16 @@
         <v>300260</v>
       </c>
       <c r="T33" s="16">
-        <f>SUM(Q33:S33)</f>
+        <f t="shared" si="1"/>
         <v>378230</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>41031</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>78</v>
+      <c r="B34" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="C34" s="7">
         <v>384</v>
@@ -3059,7 +3054,7 @@
         <v>14.771929999999999</v>
       </c>
       <c r="M34" s="6">
-        <f>K34-L34</f>
+        <f t="shared" si="0"/>
         <v>1.2017199999999999</v>
       </c>
       <c r="N34" s="14"/>
@@ -3075,16 +3070,16 @@
         <v>35890</v>
       </c>
       <c r="T34" s="16">
-        <f>SUM(Q34:S34)</f>
+        <f t="shared" si="1"/>
         <v>35890</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>41033</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>79</v>
+      <c r="B35" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="7">
         <v>3162</v>
@@ -3115,7 +3110,7 @@
         <v>34.829749999999997</v>
       </c>
       <c r="M35" s="6">
-        <f>K35-L35</f>
+        <f t="shared" si="0"/>
         <v>11.512270000000001</v>
       </c>
       <c r="N35" s="14"/>
@@ -3131,16 +3126,16 @@
         <v>92690</v>
       </c>
       <c r="T35" s="16">
-        <f>SUM(Q35:S35)</f>
+        <f t="shared" si="1"/>
         <v>112220</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>41035</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>80</v>
+      <c r="B36" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="7">
         <v>872</v>
@@ -3171,7 +3166,7 @@
         <v>11.33117</v>
       </c>
       <c r="M36" s="6">
-        <f>K36-L36</f>
+        <f t="shared" si="0"/>
         <v>0.70841000000000065</v>
       </c>
       <c r="N36" s="14"/>
@@ -3187,16 +3182,16 @@
         <v>362500</v>
       </c>
       <c r="T36" s="16">
-        <f>SUM(Q36:S36)</f>
+        <f t="shared" si="1"/>
         <v>441830</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>41037</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>81</v>
+      <c r="B37" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="7">
         <v>529</v>
@@ -3227,7 +3222,7 @@
         <v>10.58113</v>
       </c>
       <c r="M37" s="6">
-        <f>K37-L37</f>
+        <f t="shared" si="0"/>
         <v>0.66779999999999973</v>
       </c>
       <c r="N37" s="14"/>
@@ -3243,16 +3238,16 @@
         <v>192810</v>
       </c>
       <c r="T37" s="16">
-        <f>SUM(Q37:S37)</f>
+        <f t="shared" si="1"/>
         <v>198890</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>41041</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>83</v>
+      <c r="B38" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="7">
         <v>3285</v>
@@ -3283,7 +3278,7 @@
         <v>31.946020000000001</v>
       </c>
       <c r="M38" s="6">
-        <f>K38-L38</f>
+        <f t="shared" si="0"/>
         <v>13.485249999999997</v>
       </c>
       <c r="N38" s="14"/>
@@ -3299,16 +3294,16 @@
         <v>90440</v>
       </c>
       <c r="T38" s="16">
-        <f>SUM(Q38:S38)</f>
+        <f t="shared" si="1"/>
         <v>94130</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>41045</v>
       </c>
-      <c r="B39" s="35" t="s">
-        <v>85</v>
+      <c r="B39" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="7">
         <v>587</v>
@@ -3339,7 +3334,7 @@
         <v>21.418199999999999</v>
       </c>
       <c r="M39" s="6">
-        <f>K39-L39</f>
+        <f t="shared" si="0"/>
         <v>1.8293600000000012</v>
       </c>
       <c r="N39" s="14"/>
@@ -3355,16 +3350,16 @@
         <v>109430</v>
       </c>
       <c r="T39" s="16">
-        <f>SUM(Q39:S39)</f>
+        <f t="shared" si="1"/>
         <v>109530</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>41049</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>87</v>
+      <c r="B40" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="7">
         <v>338</v>
@@ -3395,7 +3390,7 @@
         <v>15.54275</v>
       </c>
       <c r="M40" s="6">
-        <f>K40-L40</f>
+        <f t="shared" si="0"/>
         <v>0.9610700000000012</v>
       </c>
       <c r="N40" s="14"/>
@@ -3411,16 +3406,16 @@
         <v>103890</v>
       </c>
       <c r="T40" s="16">
-        <f>SUM(Q40:S40)</f>
+        <f t="shared" si="1"/>
         <v>105750</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>41051</v>
       </c>
-      <c r="B41" s="35" t="s">
-        <v>88</v>
+      <c r="B41" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="C41" s="7">
         <v>3116</v>
@@ -3451,7 +3446,7 @@
         <v>35.85425</v>
       </c>
       <c r="M41" s="6">
-        <f>K41-L41</f>
+        <f t="shared" si="0"/>
         <v>8.124769999999998</v>
       </c>
       <c r="N41" s="14"/>
@@ -3467,16 +3462,16 @@
         <v>9800</v>
       </c>
       <c r="T41" s="16">
-        <f>SUM(Q41:S41)</f>
+        <f t="shared" si="1"/>
         <v>34770</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>41055</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>90</v>
+      <c r="B42" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="C42" s="7">
         <v>326</v>
@@ -3507,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="6">
-        <f>K42-L42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N42" s="14"/>
@@ -3523,16 +3518,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="16">
-        <f>SUM(Q42:S42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>41057</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>91</v>
+      <c r="B43" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="C43" s="7">
         <v>1411</v>
@@ -3563,7 +3558,7 @@
         <v>32.963590000000003</v>
       </c>
       <c r="M43" s="6">
-        <f>K43-L43</f>
+        <f t="shared" si="0"/>
         <v>11.734459999999999</v>
       </c>
       <c r="N43" s="14"/>
@@ -3579,16 +3574,16 @@
         <v>46710</v>
       </c>
       <c r="T43" s="16">
-        <f>SUM(Q43:S43)</f>
+        <f t="shared" si="1"/>
         <v>62090</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>41059</v>
       </c>
-      <c r="B44" s="35" t="s">
-        <v>92</v>
+      <c r="B44" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="C44" s="7">
         <v>759</v>
@@ -3619,7 +3614,7 @@
         <v>15.9772</v>
       </c>
       <c r="M44" s="6">
-        <f>K44-L44</f>
+        <f t="shared" si="0"/>
         <v>1.2232500000000002</v>
       </c>
       <c r="N44" s="14"/>
@@ -3635,16 +3630,16 @@
         <v>319810</v>
       </c>
       <c r="T44" s="16">
-        <f>SUM(Q44:S44)</f>
+        <f t="shared" si="1"/>
         <v>395550</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>41061</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>93</v>
+      <c r="B45" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="C45" s="7">
         <v>823</v>
@@ -3675,7 +3670,7 @@
         <v>13.8302</v>
       </c>
       <c r="M45" s="6">
-        <f>K45-L45</f>
+        <f t="shared" si="0"/>
         <v>0.87921000000000049</v>
       </c>
       <c r="N45" s="14"/>
@@ -3691,16 +3686,16 @@
         <v>205570</v>
       </c>
       <c r="T45" s="16">
-        <f>SUM(Q45:S45)</f>
+        <f t="shared" si="1"/>
         <v>281240</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>41065</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>95</v>
+      <c r="B46" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="C46" s="7">
         <v>353</v>
@@ -3731,7 +3726,7 @@
         <v>14.810739999999999</v>
       </c>
       <c r="M46" s="6">
-        <f>K46-L46</f>
+        <f t="shared" si="0"/>
         <v>2.8549100000000003</v>
       </c>
       <c r="N46" s="14"/>
@@ -3747,16 +3742,16 @@
         <v>32790</v>
       </c>
       <c r="T46" s="16">
-        <f>SUM(Q46:S46)</f>
+        <f t="shared" si="1"/>
         <v>33360</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>41069</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>97</v>
+      <c r="B47" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="C47" s="17">
         <v>298</v>
@@ -3787,7 +3782,7 @@
         <v>14.15949</v>
       </c>
       <c r="M47" s="17">
-        <f>K47-L47</f>
+        <f t="shared" si="0"/>
         <v>0.89072999999999958</v>
       </c>
       <c r="N47" s="19"/>
@@ -3803,11 +3798,11 @@
         <v>154600</v>
       </c>
       <c r="T47" s="11">
-        <f>SUM(Q47:S47)</f>
+        <f t="shared" si="1"/>
         <v>156860</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3824,7 +3819,7 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>27</v>
       </c>
@@ -3843,7 +3838,7 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -3862,7 +3857,7 @@
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -3881,7 +3876,7 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -3900,7 +3895,7 @@
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>31</v>
       </c>
@@ -3919,7 +3914,7 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -3938,7 +3933,7 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
@@ -3957,7 +3952,7 @@
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
     </row>
-    <row r="56" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
@@ -3976,7 +3971,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3993,7 +3988,7 @@
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -4010,7 +4005,7 @@
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -4027,7 +4022,7 @@
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -4051,12 +4046,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="6">
+    <mergeCell ref="Q10:T10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4070,66 +4065,64 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="27">
         <f>-Calculations!A15</f>
         <v>-1232.1632802899132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="27">
         <f>-Calculations!A4</f>
         <v>-1413.3886036328884</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="27">
-        <f>-Calculations!A4</f>
-        <v>-1413.3886036328884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="27">
-        <f>-Calculations!A4</f>
-        <v>-1413.3886036328884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B7" s="27">
         <v>0</v>
